--- a/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 20211.xlsx
+++ b/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
   </si>
 </sst>
 </file>
@@ -935,7 +944,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -968,6 +977,29 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 20211.xlsx
+++ b/docentes/Aurioles Maldonado Luis Gustavo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>Mat</t>
   </si>
@@ -79,10 +79,28 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>VASQUEZ</t>
   </si>
   <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
     <t>PEREZ</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
   </si>
   <si>
     <t>GUILLERMO</t>
@@ -489,19 +507,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H2">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -664,7 +682,7 @@
         <v>32</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -818,19 +836,19 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H2">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -944,7 +962,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -979,24 +997,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920112</v>
+        <v>19330051920084</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920084</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920117</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920112</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
+      <c r="G6">
         <v>6</v>
       </c>
     </row>
